--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -1454,7 +1454,7 @@
       <c r="S21" t="inlineStr">
         <is>
           <t>Driver,
-Gray Van</t>
+Silver Van</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4229,9 +4229,21 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
@@ -4272,9 +4284,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
@@ -4331,13 +4355,21 @@
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
@@ -4390,13 +4422,21 @@
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>MODAS</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
@@ -4453,13 +4493,21 @@
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>24)</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
@@ -4510,11 +4558,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>7490 E RIVERSIDE</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4557,11 +4601,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4604,7 +4644,11 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4654,21 +4698,13 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>MODAS</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
@@ -4705,14 +4741,10 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4752,14 +4784,10 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>7490 E RIVERSIDE</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4799,14 +4827,10 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4838,21 +4862,9 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
@@ -4879,15 +4891,19 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
@@ -4924,8 +4940,16 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
@@ -4959,8 +4983,16 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
@@ -4998,10 +5030,14 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -5037,13 +5073,21 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
@@ -5076,8 +5120,16 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
@@ -5162,7 +5214,11 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
@@ -5175,6 +5231,37 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store Car  - brakes - </t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -752,7 +752,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PICK #889 +RX, MENOMONEE FALLS</t>
+          <t>PICK #889, MENOMONEE FALLS (NO RX)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -982,7 +982,11 @@
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NO RX COUNT (INCLUDING OTC) NEEDED HERE THIS TIME.  This is an additional inventory added in</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1046,21 +1050,13 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>per Kroger request, and they said additional Rx count is not necessary</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1109,22 +1105,9 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1200,15 +1183,19 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1276,15 +1263,20 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1343,20 +1335,15 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1419,12 +1406,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1491,15 +1478,20 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1554,19 +1546,15 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Rx, Train w/ Nate</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1619,12 +1607,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1682,19 +1670,15 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1737,12 +1721,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1792,18 +1776,17 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1856,21 +1839,15 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -1921,15 +1898,20 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -1980,17 +1962,18 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2039,19 +2022,15 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2111,12 +2090,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2174,12 +2153,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2245,12 +2224,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2334,12 +2313,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2394,12 +2373,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>21)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2441,12 +2420,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>22)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2500,12 +2479,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>23)</t>
+          <t>21)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2563,12 +2542,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>24)</t>
+          <t>22)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2618,12 +2597,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>25)</t>
+          <t>23)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2669,12 +2648,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>26)</t>
+          <t>24)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2724,12 +2703,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>27)</t>
+          <t>25)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2777,9 +2756,21 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>26)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -2812,9 +2803,21 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>27)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2872,11 +2875,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -2931,11 +2930,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -2992,7 +2987,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>SALE INVENTORIES</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3047,7 +3042,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NIMITE IS THE CONTACT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3102,7 +3097,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>BP, MADISON</t>
+          <t>SALE INVENTORIES</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3153,7 +3148,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>5551 EASTPARK BLVD</t>
+          <t>NIMITE IS THE CONTACT</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3206,7 +3201,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
+          <t>BP, MADISON</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3257,7 +3252,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>5551 EASTPARK BLVD</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3312,7 +3307,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3367,7 +3362,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4800 LARSON BEACH RD</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3418,7 +3413,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3482,7 +3477,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>4800 LARSON BEACH RD</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3541,7 +3536,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3612,7 +3607,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>4701 BURMA RD</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3675,7 +3670,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3743,7 +3738,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>4701 BURMA RD</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3800,7 +3795,11 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
@@ -3862,21 +3861,13 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
@@ -3937,21 +3928,9 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
@@ -4014,17 +3993,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -4091,9 +4070,21 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
@@ -4154,9 +4145,21 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
@@ -4218,11 +4221,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -4273,11 +4272,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4342,7 +4337,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4409,7 +4404,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4476,7 +4471,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4550,7 +4545,11 @@
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>7250 E STATE ST</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4584,14 +4583,10 @@
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4627,16 +4622,8 @@
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4680,19 +4667,15 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4727,12 +4710,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4770,15 +4753,19 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4813,12 +4800,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4854,8 +4841,16 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -4881,8 +4876,16 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -1257,7 +1257,7 @@
       <c r="G19" t="inlineStr">
         <is>
           <t>Driver,
-Corolla</t>
+Corolla, Until 10:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -1257,7 +1257,7 @@
       <c r="G19" t="inlineStr">
         <is>
           <t>Driver,
-Corolla, Until 10:00</t>
+Corolla, Until 8:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -2815,7 +2815,8 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 8:30</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -1844,10 +1844,15 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -1903,7 +1908,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1967,15 +1972,10 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2027,10 +2027,14 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2095,7 +2099,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2158,7 +2162,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2229,7 +2233,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2318,7 +2322,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2425,7 +2429,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2484,7 +2488,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2547,7 +2551,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2602,7 +2606,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2653,7 +2657,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2708,7 +2712,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2763,12 +2767,13 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 8:30</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2803,22 +2808,9 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>27)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 8:30</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2931,7 +2923,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -2988,7 +2984,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3043,7 +3039,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SALE INVENTORIES</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3098,7 +3094,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>SALE INVENTORIES</t>
+          <t>NIMITE IS THE CONTACT</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3149,7 +3145,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>NIMITE IS THE CONTACT</t>
+          <t>BP, MADISON</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3202,7 +3198,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>BP, MADISON</t>
+          <t>5551 EASTPARK BLVD</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3253,7 +3249,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>5551 EASTPARK BLVD</t>
+          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3308,7 +3304,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3363,7 +3359,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3414,7 +3410,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>4800 LARSON BEACH RD</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3478,7 +3474,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>4800 LARSON BEACH RD</t>
+          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3537,7 +3533,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3608,7 +3604,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3671,7 +3667,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>4701 BURMA RD</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3739,7 +3735,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>4701 BURMA RD</t>
+          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3798,7 +3794,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
+          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3863,11 +3859,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
@@ -3929,9 +3921,21 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
@@ -3994,17 +3998,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -4073,17 +4077,17 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -4146,21 +4150,9 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
@@ -4273,7 +4265,11 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4338,7 +4334,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4405,7 +4401,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4472,7 +4468,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4548,7 +4544,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4585,11 +4581,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4623,8 +4615,16 @@
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4668,12 +4668,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4711,15 +4711,19 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4754,19 +4758,15 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4801,12 +4801,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4844,12 +4844,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4877,16 +4877,8 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -1984,7 +1984,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2242,21 +2242,9 @@
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2392,7 +2380,11 @@
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2441,7 +2433,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2500,7 +2492,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2563,7 +2555,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
+          <t>1776 LOGAN AVE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2618,7 +2610,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1776 LOGAN AVE</t>
+          <t>https://goo.gl/maps/GwirBabPWYB2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2669,7 +2661,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GwirBabPWYB2</t>
+          <t>*EMILY IS THE DM</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2722,11 +2714,7 @@
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>*EMILY IS THE DM</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2777,9 +2765,21 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -2814,19 +2814,15 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
@@ -2873,12 +2869,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2932,12 +2928,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2991,12 +2987,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3046,12 +3042,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3099,16 +3095,8 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -3204,7 +3192,11 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3257,7 +3249,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3312,7 +3304,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3367,7 +3359,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
+          <t>550 SOUTH ROCK DR</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3418,7 +3410,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>550 SOUTH ROCK DR</t>
+          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3482,7 +3474,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
+          <t>*2 IL KELLEY SCANS GOING THIS SAME DAY!</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3539,11 +3531,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>*2 IL KELLEY SCANS GOING THIS SAME DAY!</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
@@ -3609,9 +3597,21 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
@@ -3674,19 +3674,15 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3742,12 +3738,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3801,12 +3797,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3864,12 +3860,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3939,15 +3935,19 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4014,19 +4014,15 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
@@ -4093,12 +4089,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4154,16 +4150,8 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
@@ -4273,7 +4261,11 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
@@ -4342,7 +4334,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4409,10 +4401,14 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Until 1:00</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4474,16 +4470,8 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Until 1:00</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
@@ -4716,14 +4704,10 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4763,10 +4747,14 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -1220,7 +1220,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1435,15 +1435,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1516,10 +1511,15 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -5021,10 +5021,14 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
@@ -5064,14 +5068,10 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2210,10 +2210,15 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2262,22 +2267,9 @@
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2400,7 +2392,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2457,7 +2453,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2516,7 +2512,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S BP, FOND DU LAC-JOHNSON</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2567,7 +2563,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, FOND DU LAC-JOHNSON</t>
+          <t>919 E JOHNSON ST</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2622,7 +2618,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>919 E JOHNSON ST</t>
+          <t>https://goo.gl/maps/K1uY65NKN1wdvR36A</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2677,7 +2673,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/K1uY65NKN1wdvR36A</t>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2726,11 +2722,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2789,9 +2781,21 @@
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2834,17 +2838,17 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2889,17 +2893,17 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2948,12 +2952,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3001,21 +3005,9 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3109,10 +3101,19 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3149,21 +3150,19 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van,
-Rx, Train w/ Ian</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3206,7 +3205,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3218,7 +3217,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #374, PEWAUKEE - CAPITOL DR</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3261,7 +3260,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3273,7 +3272,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>PICK #374, PEWAUKEE - CAPITOL DR</t>
+          <t>1405 CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3316,7 +3315,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3328,7 +3327,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>1405 CAPITOL DRIVE</t>
+          <t>https://goo.gl/maps/fM2WtjtDye32</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3371,19 +3370,20 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fM2WtjtDye32</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3422,22 +3422,17 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3486,7 +3481,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3495,9 +3490,21 @@
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3541,7 +3548,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3552,17 +3559,18 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3620,7 +3628,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3631,7 +3639,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -3691,7 +3699,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3702,20 +3710,15 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3755,7 +3758,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3766,15 +3769,19 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3814,7 +3821,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3825,12 +3832,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3877,7 +3884,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3888,12 +3895,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3956,7 +3963,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3967,12 +3974,12 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4031,7 +4038,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4042,12 +4049,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4106,7 +4113,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4117,12 +4124,12 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4161,7 +4168,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4172,12 +4179,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4216,7 +4223,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4227,12 +4234,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4275,7 +4282,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4286,12 +4293,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4346,7 +4353,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4357,12 +4364,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4417,7 +4424,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4428,12 +4435,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4473,37 +4480,13 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>24)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4577,11 +4560,19 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -4622,7 +4613,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4630,7 +4621,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4673,7 +4664,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4681,7 +4672,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4716,7 +4707,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
+          <t>7490 E RIVERSIDE</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4724,7 +4715,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4763,7 +4754,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>7490 E RIVERSIDE</t>
+          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4771,7 +4762,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4804,19 +4795,11 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
-        </is>
-      </c>
+      <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
@@ -4846,13 +4829,37 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
@@ -4875,35 +4882,27 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
@@ -4926,27 +4925,31 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
@@ -4969,31 +4972,31 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
     </row>
@@ -5016,28 +5019,24 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -5063,26 +5062,18 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -5104,16 +5095,8 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
@@ -5144,7 +5127,11 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
@@ -5167,13 +5154,17 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -5200,51 +5191,16 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12-01-24 to 12-07-24 Madison Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3320,7 +3320,8 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3370,13 +3371,12 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4417,37 +4417,13 @@
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>23)</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4525,11 +4501,19 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -4562,7 +4546,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4570,7 +4554,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4613,7 +4597,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4621,7 +4605,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4664,7 +4648,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
+          <t>7490 E RIVERSIDE</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4672,7 +4656,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4707,7 +4691,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>7490 E RIVERSIDE</t>
+          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4715,7 +4699,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4752,19 +4736,11 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
-        </is>
-      </c>
+      <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
@@ -4794,13 +4770,37 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
@@ -4831,35 +4831,27 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
@@ -4882,27 +4874,31 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
@@ -4925,31 +4921,31 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
@@ -4972,28 +4968,24 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -5019,26 +5011,18 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -5060,16 +5044,8 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
@@ -5100,7 +5076,11 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
@@ -5123,13 +5103,17 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -5156,51 +5140,16 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
